--- a/document/ToolAsign.xlsx
+++ b/document/ToolAsign.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Nguyễn Văn A + Nguyễn Văn B</t>
+  </si>
+  <si>
+    <t>JavaScript End to End Testing Framework | cypress.io testing tools</t>
+  </si>
+  <si>
+    <t>Fast and reliable end-to-end testing for modern web apps | Playwright</t>
   </si>
 </sst>
 </file>
@@ -84,11 +90,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -370,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -413,12 +420,24 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://www.guru99.com/quick-test-professional-qtp-tutorial.html"/>
     <hyperlink ref="B4" r:id="rId2" display="https://www.guru99.com/soapui-tutorial.html"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.cypress.io/"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://playwright.dev/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/document/ToolAsign.xlsx
+++ b/document/ToolAsign.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E67E07-351D-43DC-B7E7-06D2698F7E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3384" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -46,12 +47,15 @@
   </si>
   <si>
     <t>Fast and reliable end-to-end testing for modern web apps | Playwright</t>
+  </si>
+  <si>
+    <t>Hồ Đình Tuấn + Nguyễn Hoàng Đức</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,20 +380,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -405,37 +409,40 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://www.guru99.com/quick-test-professional-qtp-tutorial.html"/>
-    <hyperlink ref="B4" r:id="rId2" display="https://www.guru99.com/soapui-tutorial.html"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://www.cypress.io/"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://playwright.dev/"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://www.guru99.com/quick-test-professional-qtp-tutorial.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://www.guru99.com/soapui-tutorial.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" display="https://www.cypress.io/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" display="https://playwright.dev/" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>

--- a/document/ToolAsign.xlsx
+++ b/document/ToolAsign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E67E07-351D-43DC-B7E7-06D2698F7E45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A330695-F207-4EEE-B877-675C4C43992E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3390" yWindow="3390" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Hồ Đình Tuấn + Nguyễn Hoàng Đức</t>
+  </si>
+  <si>
+    <t>Bùi Công Minh+ Nguyễn Kim Khôi</t>
   </si>
 </sst>
 </file>
@@ -384,16 +387,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -409,22 +412,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -432,7 +438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>

--- a/document/ToolAsign.xlsx
+++ b/document/ToolAsign.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A330695-F207-4EEE-B877-675C4C43992E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC83817-34AE-4B81-B8BD-DEF7BB297E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="3390" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Bùi Công Minh+ Nguyễn Kim Khôi</t>
+  </si>
+  <si>
+    <t>Phạm Minh Tuấn + Nguyễn Tuấn Thành</t>
+  </si>
+  <si>
+    <t>Tang Wen Miao Jin + Nguyễn Xuân Hồng</t>
   </si>
 </sst>
 </file>
@@ -387,16 +393,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -412,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -420,17 +426,20 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -438,7 +447,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>

--- a/document/ToolAsign.xlsx
+++ b/document/ToolAsign.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC83817-34AE-4B81-B8BD-DEF7BB297E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BCEEAC-6AFA-4095-9492-15365CD96594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>Watir – This is a functional testing tool for web applications. It supports tests executed at the web browser and uses a ruby scripting language</t>
   </si>
   <si>
-    <t>Nguyễn Văn A + Nguyễn Văn B</t>
-  </si>
-  <si>
     <t>JavaScript End to End Testing Framework | cypress.io testing tools</t>
   </si>
   <si>
@@ -58,7 +55,10 @@
     <t>Phạm Minh Tuấn + Nguyễn Tuấn Thành</t>
   </si>
   <si>
-    <t>Tang Wen Miao Jin + Nguyễn Xuân Hồng</t>
+    <t>Thang Văn Diệu Tiến + Nguyễn Xuân Hồng</t>
+  </si>
+  <si>
+    <t>Vũ Hoàng Nam</t>
   </si>
 </sst>
 </file>
@@ -393,16 +393,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,49 +410,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
